--- a/data/case1/20/Plm1_13.xlsx
+++ b/data/case1/20/Plm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.043195323676101793</v>
+        <v>-0.085453833382430844</v>
       </c>
       <c r="B1" s="0">
-        <v>0.043155311653336526</v>
+        <v>0.085298807313094471</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0029556103615728802</v>
+        <v>-0.01370888025537198</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0030484240819443897</v>
+        <v>0.013145644298704795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10597758334062135</v>
+        <v>0.089787262513134181</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10623413364814382</v>
+        <v>-0.090135690485865894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.17776112794334509</v>
+        <v>-0.19385761257879253</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17701240872604629</v>
+        <v>0.1928217266130865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17101240899037773</v>
+        <v>-0.18682172698095822</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16950701266944268</v>
+        <v>0.18473365644189865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10676993015903813</v>
+        <v>-0.10167721731339663</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10663277979639796</v>
+        <v>0.10154419122396607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.086632780118213404</v>
+        <v>-0.081124537371731975</v>
       </c>
       <c r="B7" s="0">
-        <v>0.086274979867901891</v>
+        <v>0.080809332802447287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.029506693449703469</v>
+        <v>-0.060809333259362219</v>
       </c>
       <c r="B8" s="0">
-        <v>0.029430525674061236</v>
+        <v>0.060557205333448216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.023430525954223569</v>
+        <v>-0.054557205727387981</v>
       </c>
       <c r="B9" s="0">
-        <v>0.023379012448978109</v>
+        <v>0.054350521377830141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.017379012730636134</v>
+        <v>-0.048350521776768574</v>
       </c>
       <c r="B10" s="0">
-        <v>0.017375330466180117</v>
+        <v>0.048323873558260289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.012875330742826208</v>
+        <v>-0.043823873950486814</v>
       </c>
       <c r="B11" s="0">
-        <v>0.012870292309287379</v>
+        <v>0.043777500155837146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0068702925911807711</v>
+        <v>-0.037777500556810839</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0068622066311134766</v>
+        <v>0.037632901315330702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.00086220691360328061</v>
+        <v>-0.031632901721417639</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00086199503019468438</v>
+        <v>0.03159298331648408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.013696627111729143</v>
+        <v>-0.019592983753526916</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.013703557201873551</v>
+        <v>0.019565363800912117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.019703556919786536</v>
+        <v>-0.013565364209537023</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.019722354360282246</v>
+        <v>0.013538453638226144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026445201495875</v>
+        <v>-0.01502742987367478</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004357173479477</v>
+        <v>0.015004419285829407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043574558817951</v>
+        <v>-0.0090044196970460177</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999707227424</v>
+        <v>0.0089999995736445015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03611092229042967</v>
+        <v>-0.061589927440643066</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096707752587776</v>
+        <v>0.061553505598475056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096708025128535</v>
+        <v>-0.052553505977035009</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0270138914376572</v>
+        <v>0.052293411540005774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.01801389171257739</v>
+        <v>-0.043293411925224845</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004280121795446</v>
+        <v>0.043245115366437048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042803970655783</v>
+        <v>-0.0090043003997921645</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997244545327</v>
+        <v>0.0089999996130423199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093929159531050743</v>
+        <v>-0.093932907190653836</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093621987688703001</v>
+        <v>0.093624672007157628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084621987963488188</v>
+        <v>-0.084624672389307598</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412438160600999</v>
+        <v>0.084124872860773081</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124381996393012</v>
+        <v>-0.042124873411157893</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999607497784</v>
+        <v>0.041999999446694858</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.056737082783936188</v>
+        <v>-0.077056439510084118</v>
       </c>
       <c r="B25" s="0">
-        <v>0.056697639819343948</v>
+        <v>0.076954980417312413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.050697640093410712</v>
+        <v>-0.070954980800099321</v>
       </c>
       <c r="B26" s="0">
-        <v>0.05065237398340372</v>
+        <v>0.070830795445907313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.044652374258244976</v>
+        <v>-0.064830795830315147</v>
       </c>
       <c r="B27" s="0">
-        <v>0.044514949565370721</v>
+        <v>0.064429891571345266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.038514949842975987</v>
+        <v>-0.076214749260014258</v>
       </c>
       <c r="B28" s="0">
-        <v>0.038435109467629403</v>
+        <v>0.075727096743745115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.026435109767266596</v>
+        <v>-0.063727097169525848</v>
       </c>
       <c r="B29" s="0">
-        <v>0.026405664331788259</v>
+        <v>0.063503177293251056</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.050487382517737878</v>
+        <v>-0.043503177761029743</v>
       </c>
       <c r="B30" s="0">
-        <v>0.050319549398375241</v>
+        <v>0.043372119405099774</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018969934854198</v>
+        <v>-0.027019410696356161</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000912432452395</v>
+        <v>0.02700083661803454</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060009127667104423</v>
+        <v>-0.0060008370952999712</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999997161384044</v>
+        <v>0.0059999995962245478</v>
       </c>
     </row>
   </sheetData>
